--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,316 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pret</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WC1V7EY</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Instagram.com/pret</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mon - Thur: 6.30  AM  -  7  PM, Fri: 6.30  AM  -  5.30  PM, Sat: 8.30  AM  -  5  PM, Sun: closed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>6.30  AM  -  5.30  PM</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>8.30  AM  -  5  PM</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Starbucks</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WC1V7EY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Instagram.com/starbucks</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mon  -  Fri: 6  AM  -  7 PM, Sat: 7 AM  -  7 PM, Sun: 9 AM  -  5 PM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>6  AM  -  7 PM</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>7 AM  -  7 PM</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>9 AM  -  5 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gregs</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WC1V6DR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Instagram.com/gregs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mon  -  Fri: 6  AM  -  6 PM, Sat: 7  AM  -  4 PM, Sun: closed</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>6  AM  -  6 PM</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>7  AM  -  4 PM</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Benugo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC1N2NS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Instagram.com/benugo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mon  -  Thu: 7.30  AM -  5 PM, Fri: 7  AM  -  4  PM, Sat  -  Sun: Closed</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7.30  AM -  5 PM</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>7  AM  -  4  PM</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WC1V6AZ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Instagram.com/leonrestaurants</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mon  -  Fri: 7.30  AM  -  6  PM, Sat  -  Sun: Closed</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>7.30  AM  -  6  PM</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gails</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WC1V6LS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Instagram.com/gails</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mon  -  thu: 6.30  AM  -  5.30  PM, Fri: 7  AM  -  4.30  PM, Sat  -  Sun: 8  AM  -  4.30  PM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>7  AM  -  4.30  PM</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>8  AM  -  4.30  PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pho 82</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WC1V7DX</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>02033026890</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mon  -  Fri: 11  AM  -  5  PM, Sat  -  Sun: Closed</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>11  AM  -  5  PM</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
